--- a/AEF_files/10.syntax.passed/202504291540---AEF_CMA6_gh_1542025.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504291540---AEF_CMA6_gh_1542025.syntax_checked.xlsx
@@ -4589,8 +4589,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4900,17 +4900,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8CBEBF6-AC20-41D8-AE7A-0408D86165E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF23D1F-0CCF-446E-A998-ED2C34735642}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7CA48D-CCE7-4B19-B256-3405449BB814}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02319B3F-B50C-4072-9925-148202FFC660}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E29B6B35-C7F5-46DB-BD5E-7FC91BCB0906}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A883725B-633B-44E2-B91F-E9C47DCC467D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4392AF-E639-4E22-9234-5CFD5B3AF31F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA496CB1-1FF5-4B17-8E96-F5A263D9EB89}"/>
 </file>
--- a/AEF_files/10.syntax.passed/202504291540---AEF_CMA6_gh_1542025.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504291540---AEF_CMA6_gh_1542025.syntax_checked.xlsx
@@ -4900,17 +4900,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF23D1F-0CCF-446E-A998-ED2C34735642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5060D1AB-4496-4B86-936A-D1495B5467FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02319B3F-B50C-4072-9925-148202FFC660}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79243EA8-2C82-4602-A158-1718F56F8B73}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A883725B-633B-44E2-B91F-E9C47DCC467D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BFC27D-0CAB-4554-832C-BE35A95589CE}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA496CB1-1FF5-4B17-8E96-F5A263D9EB89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{437D1712-1A61-4032-BAFD-038B70EF2F32}"/>
 </file>